--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8327" windowHeight="4416"/>
+    <workbookView windowWidth="23040" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Табельный номер</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>НОВОСИБ. ОБЛ Ивановский</t>
+  </si>
+  <si>
+    <t>И. И. Иванов</t>
+  </si>
+  <si>
+    <t>Суперпользователь</t>
   </si>
 </sst>
 </file>
@@ -804,6 +810,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1263,6 +1276,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
